--- a/StructureDefinition-PADI-PACPComposition.xlsx
+++ b/StructureDefinition-PADI-PACPComposition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="443">
   <si>
     <t>Path</t>
   </si>
@@ -636,7 +636,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|Group)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -954,17 +954,21 @@
     <t>legal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
-    <t>professional_attester</t>
+    <t>notary_attester</t>
   </si>
   <si>
     <t>professional</t>
   </si>
   <si>
-    <t>personal_attester</t>
+    <t xml:space="preserve">Reference(RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>witness_attester</t>
   </si>
   <si>
     <t>personal</t>
@@ -4107,7 +4111,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>185</v>
       </c>
@@ -4117,13 +4121,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -7226,7 +7230,7 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>292</v>
@@ -7320,7 +7324,7 @@
         <v>252</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>41</v>
@@ -7820,7 +7824,7 @@
         <v>41</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>41</v>
@@ -8028,7 +8032,7 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>292</v>
@@ -8119,7 +8123,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8142,19 +8146,19 @@
         <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8203,7 +8207,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8221,13 +8225,13 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8235,7 +8239,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8261,13 +8265,13 @@
         <v>253</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8317,7 +8321,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8335,13 +8339,13 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>41</v>
@@ -8349,7 +8353,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8461,7 +8465,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8575,7 +8579,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8691,7 +8695,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8717,13 +8721,13 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8752,10 +8756,10 @@
         <v>164</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>41</v>
@@ -8773,7 +8777,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>53</v>
@@ -8791,13 +8795,13 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8805,7 +8809,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8828,13 +8832,13 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8885,7 +8889,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>53</v>
@@ -8903,13 +8907,13 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -8917,7 +8921,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8943,16 +8947,16 @@
         <v>253</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9001,7 +9005,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9019,13 +9023,13 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9033,7 +9037,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9145,7 +9149,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9259,7 +9263,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9375,7 +9379,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9401,13 +9405,13 @@
         <v>173</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9436,10 +9440,10 @@
         <v>190</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9457,7 +9461,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9481,7 +9485,7 @@
         <v>182</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9489,7 +9493,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9512,13 +9516,13 @@
         <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9569,7 +9573,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9593,7 +9597,7 @@
         <v>224</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9601,7 +9605,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9624,13 +9628,13 @@
         <v>54</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9681,7 +9685,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9699,7 +9703,7 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>169</v>
@@ -9713,7 +9717,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9739,10 +9743,10 @@
         <v>253</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9793,7 +9797,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9805,16 +9809,16 @@
         <v>41</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9825,7 +9829,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9937,7 +9941,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10051,7 +10055,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10167,11 +10171,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10193,16 +10197,16 @@
         <v>55</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>41</v>
@@ -10251,7 +10255,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10283,7 +10287,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10309,16 +10313,16 @@
         <v>173</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>41</v>
@@ -10346,10 +10350,10 @@
         <v>190</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>41</v>
@@ -10367,7 +10371,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10399,7 +10403,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10422,13 +10426,13 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -10481,7 +10485,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10513,7 +10517,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10536,16 +10540,16 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10595,7 +10599,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10616,7 +10620,7 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10627,7 +10631,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10653,13 +10657,13 @@
         <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10709,7 +10713,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10718,7 +10722,7 @@
         <v>53</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>65</v>
@@ -10727,10 +10731,10 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>41</v>
@@ -10741,7 +10745,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10767,16 +10771,16 @@
         <v>73</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>41</v>
@@ -10804,10 +10808,10 @@
         <v>164</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -10825,7 +10829,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10843,7 +10847,7 @@
         <v>41</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>169</v>
@@ -10857,7 +10861,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10883,16 +10887,16 @@
         <v>173</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -10920,10 +10924,10 @@
         <v>77</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -10941,7 +10945,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -10959,7 +10963,7 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>169</v>
@@ -10973,7 +10977,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10996,16 +11000,16 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11055,7 +11059,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11064,7 +11068,7 @@
         <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>65</v>
@@ -11073,10 +11077,10 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11087,7 +11091,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11113,16 +11117,16 @@
         <v>173</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11150,10 +11154,10 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11171,7 +11175,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11180,7 +11184,7 @@
         <v>53</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>65</v>
@@ -11189,7 +11193,7 @@
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>169</v>
@@ -11203,7 +11207,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11229,13 +11233,13 @@
         <v>41</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11285,7 +11289,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11294,7 +11298,7 @@
         <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>65</v>
@@ -11303,10 +11307,10 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-PADI-PACPComposition.xlsx
+++ b/StructureDefinition-PADI-PACPComposition.xlsx
@@ -1494,7 +1494,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-POLSTObservation|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PMOLSTObservation)
 </t>
   </si>
   <si>
@@ -1509,7 +1509,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-AutopsyObservation|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-OrganDonationObservation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-AutopsyObservation|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-OrganDonationObservation)
 </t>
   </si>
   <si>

--- a/StructureDefinition-PADI-PACPComposition.xlsx
+++ b/StructureDefinition-PADI-PACPComposition.xlsx
@@ -1479,7 +1479,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-CareExperiencePreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-CareExperiencePreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalHealthGoal)
 </t>
   </si>
   <si>
@@ -1494,7 +1494,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PMOLSTObservation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PMOLSTObservation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal)
 </t>
   </si>
   <si>
@@ -1509,7 +1509,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-AutopsyObservation|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-OrganDonationObservation)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-AutopsyObservation|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-OrganDonationObservation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal)
 </t>
   </si>
   <si>

--- a/StructureDefinition-PADI-PACPComposition.xlsx
+++ b/StructureDefinition-PADI-PACPComposition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$155</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6137" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="458">
   <si>
     <t>Path</t>
   </si>
@@ -579,10 +579,10 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
-    <t>Type of a composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pacio-adi/ValueSet/PADIAdvanceDirectiveCategoriesVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1400,36 +1400,7 @@
     <t>.component.section</t>
   </si>
   <si>
-    <t>personal_advance_care_plan</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="81334-5"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>healthcare_agent_appointment</t>
-  </si>
-  <si>
-    <t>Composition.section.section.id</t>
-  </si>
-  <si>
-    <t>Composition.section.section.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.section.modifierExtension</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>Composition.section.section.title</t>
-  </si>
-  <si>
-    <t>Composition.section.section.code</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1440,32 +1411,8 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Composition.section.section.author</t>
-  </si>
-  <si>
-    <t>Composition.section.section.focus</t>
-  </si>
-  <si>
-    <t>Composition.section.section.text</t>
-  </si>
-  <si>
-    <t>Composition.section.section.mode</t>
-  </si>
-  <si>
-    <t>Composition.section.section.orderedBy</t>
-  </si>
-  <si>
-    <t>Composition.section.section.entry</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-HealthcareAgent|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-ConsentForHealthcareAgent)
 </t>
-  </si>
-  <si>
-    <t>Composition.section.section.emptyReason</t>
-  </si>
-  <si>
-    <t>Composition.section.section.section</t>
   </si>
   <si>
     <t>gpp_personal_care_experience</t>
@@ -1670,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN169"/>
+  <dimension ref="A1:AN155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1679,7 +1626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.23046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="51.11328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4185,11 +4132,9 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X22" t="s" s="2">
         <v>178</v>
       </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
         <v>179</v>
       </c>
@@ -9853,7 +9798,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>43</v>
@@ -11459,7 +11404,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>53</v>
@@ -11903,7 +11848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>380</v>
       </c>
@@ -11919,7 +11864,7 @@
         <v>53</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>41</v>
@@ -12363,7 +12308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>402</v>
       </c>
@@ -12379,7 +12324,7 @@
         <v>53</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -12709,7 +12654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>424</v>
       </c>
@@ -12725,7 +12670,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>41</v>
@@ -12734,7 +12679,7 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>366</v>
+        <v>446</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>425</v>
@@ -12949,7 +12894,7 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>43</v>
@@ -13011,16 +12956,16 @@
         <v>41</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>373</v>
+        <v>41</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
         <v>439</v>
@@ -13055,17 +13000,17 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>53</v>
@@ -13083,14 +13028,12 @@
         <v>253</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>41</v>
@@ -13139,7 +13082,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13148,10 +13091,10 @@
         <v>43</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>65</v>
+        <v>374</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>41</v>
@@ -13160,7 +13103,7 @@
         <v>375</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>41</v>
@@ -13171,7 +13114,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13283,7 +13226,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13397,7 +13340,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13432,7 +13375,7 @@
         <v>146</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>41</v>
@@ -13513,7 +13456,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13629,7 +13572,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13674,7 +13617,7 @@
         <v>41</v>
       </c>
       <c r="R105" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>41</v>
@@ -13745,7 +13688,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13859,7 +13802,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13971,9 +13914,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13987,7 +13930,7 @@
         <v>53</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>41</v>
@@ -14087,7 +14030,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14203,7 +14146,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14319,7 +14262,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14342,7 +14285,7 @@
         <v>41</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>425</v>
@@ -14433,7 +14376,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14549,7 +14492,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14663,10 +14606,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>41</v>
@@ -14691,14 +14634,12 @@
         <v>253</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>41</v>
@@ -14747,7 +14688,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -14756,10 +14697,10 @@
         <v>43</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>65</v>
+        <v>374</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>41</v>
@@ -14768,7 +14709,7 @@
         <v>375</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>41</v>
@@ -14779,7 +14720,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14891,7 +14832,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15005,7 +14946,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15040,7 +14981,7 @@
         <v>146</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>41</v>
@@ -15121,7 +15062,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15237,7 +15178,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15282,7 +15223,7 @@
         <v>41</v>
       </c>
       <c r="R119" t="s" s="2">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>41</v>
@@ -15353,7 +15294,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15467,7 +15408,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15579,9 +15520,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15595,7 +15536,7 @@
         <v>53</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>41</v>
@@ -15695,7 +15636,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15811,7 +15752,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15927,7 +15868,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15950,7 +15891,7 @@
         <v>41</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>425</v>
@@ -16041,7 +15982,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16157,7 +16098,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16271,10 +16212,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>41</v>
@@ -16299,14 +16240,12 @@
         <v>253</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>41</v>
@@ -16355,7 +16294,7 @@
         <v>41</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -16364,10 +16303,10 @@
         <v>43</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>65</v>
+        <v>374</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>41</v>
@@ -16376,7 +16315,7 @@
         <v>375</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>41</v>
@@ -16387,7 +16326,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16499,7 +16438,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16613,7 +16552,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16648,7 +16587,7 @@
         <v>146</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>41</v>
@@ -16729,7 +16668,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16845,7 +16784,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16890,7 +16829,7 @@
         <v>41</v>
       </c>
       <c r="R133" t="s" s="2">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>41</v>
@@ -16961,7 +16900,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17075,7 +17014,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17187,9 +17126,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17203,7 +17142,7 @@
         <v>53</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>41</v>
@@ -17303,7 +17242,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17419,7 +17358,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17535,7 +17474,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17558,7 +17497,7 @@
         <v>41</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>425</v>
@@ -17649,7 +17588,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17765,7 +17704,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17879,10 +17818,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>41</v>
@@ -17907,14 +17846,12 @@
         <v>253</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>41</v>
@@ -17963,7 +17900,7 @@
         <v>41</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -17972,10 +17909,10 @@
         <v>43</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>65</v>
+        <v>374</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>41</v>
@@ -17984,7 +17921,7 @@
         <v>375</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>41</v>
@@ -17995,7 +17932,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18107,7 +18044,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18221,7 +18158,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18256,7 +18193,7 @@
         <v>146</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>41</v>
@@ -18337,7 +18274,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18453,7 +18390,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18498,7 +18435,7 @@
         <v>41</v>
       </c>
       <c r="R147" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>41</v>
@@ -18569,7 +18506,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18683,7 +18620,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18795,9 +18732,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18811,7 +18748,7 @@
         <v>53</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>41</v>
@@ -18911,7 +18848,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19027,7 +18964,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19141,9 +19078,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19157,7 +19094,7 @@
         <v>43</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>41</v>
@@ -19166,7 +19103,7 @@
         <v>41</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>471</v>
+        <v>366</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>425</v>
@@ -19257,7 +19194,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19373,7 +19310,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19485,1616 +19422,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="157" hidden="true">
-      <c r="A157" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="158" hidden="true">
-      <c r="A158" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N158" s="2"/>
-      <c r="O158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="159" hidden="true">
-      <c r="A159" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="162" hidden="true">
-      <c r="A162" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P162" s="2"/>
-      <c r="Q162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN162" t="s" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="163" hidden="true">
-      <c r="A163" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N163" s="2"/>
-      <c r="O163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN163" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="164" hidden="true">
-      <c r="A164" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F164" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N164" s="2"/>
-      <c r="O164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P164" s="2"/>
-      <c r="Q164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN164" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="165" hidden="true">
-      <c r="A165" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B165" s="2"/>
-      <c r="C165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F165" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL165" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN165" t="s" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="166" hidden="true">
-      <c r="A166" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B166" s="2"/>
-      <c r="C166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F166" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P166" s="2"/>
-      <c r="Q166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="167" hidden="true">
-      <c r="A167" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F167" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N167" s="2"/>
-      <c r="O167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P167" s="2"/>
-      <c r="Q167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AL167" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="168" hidden="true">
-      <c r="A168" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B168" s="2"/>
-      <c r="C168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F168" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P168" s="2"/>
-      <c r="Q168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AL168" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM168" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN168" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="169" hidden="true">
-      <c r="A169" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F169" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N169" s="2"/>
-      <c r="O169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P169" s="2"/>
-      <c r="Q169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AL169" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN169">
+  <autoFilter ref="A1:AN155">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -21104,7 +19433,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI168">
+  <conditionalFormatting sqref="A2:AI154">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-PADI-PACPComposition.xlsx
+++ b/StructureDefinition-PADI-PACPComposition.xlsx
@@ -1441,7 +1441,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PMOLSTObservation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PMOLSTObservation|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalHealthGoal)
 </t>
   </si>
   <si>
@@ -1456,7 +1456,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-AutopsyObservation|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-OrganDonationObservation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalPrioritiesOrganizer|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-AutopsyObservation|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-OrganDonationObservation|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalHealthGoal)
 </t>
   </si>
   <si>
@@ -10702,7 +10702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>402</v>
       </c>
@@ -10712,13 +10712,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>41</v>
@@ -12308,7 +12308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
         <v>402</v>
       </c>
@@ -12318,13 +12318,13 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -13914,7 +13914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
         <v>402</v>
       </c>
@@ -13924,13 +13924,13 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>41</v>
@@ -15520,7 +15520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
         <v>402</v>
       </c>
@@ -15530,13 +15530,13 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>41</v>
@@ -17126,7 +17126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
         <v>402</v>
       </c>
@@ -17136,13 +17136,13 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>41</v>
@@ -18732,7 +18732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
         <v>402</v>
       </c>
@@ -18742,13 +18742,13 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-PADI-PACPComposition.xlsx
+++ b/StructureDefinition-PADI-PACPComposition.xlsx
@@ -407,7 +407,7 @@
     <t>InformationRecipientExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-adi/StructureDefinition/padi-informatioRecipient-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-adi/StructureDefinition/padi-informationRecipient-extension}
 </t>
   </si>
   <si>

--- a/StructureDefinition-PADI-PACPComposition.xlsx
+++ b/StructureDefinition-PADI-PACPComposition.xlsx
@@ -1626,46 +1626,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.11328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.8828125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.52734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="24.0078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="57.8046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="72.17578125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.25" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="70.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
